--- a/classified_dictionary.xlsx
+++ b/classified_dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -465,2318 +465,2366 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>abrira</t>
+          <t>20000</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>acaba</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>acabando</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>abrigues</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>advirtiendo</t>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>actuo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>ademas</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>amanecer</t>
+          <t>90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>adjudicamos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>aparecer</t>
+          <t>a</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>afloja</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>apoyas</t>
+          <t>abrira</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>agua</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>areglar</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>ahorita</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arreglas</t>
+          <t>acabando</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>abrigues</t>
+          <t>alcalde</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>aumenta</t>
+          <t>advertencia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>actuo</t>
+          <t>alli</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>avisado</t>
+          <t>advirtiendo</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ademas</t>
+          <t>amigo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>avisar</t>
+          <t>al</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>adjudicamos</t>
+          <t>amo</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>burlando</t>
+          <t>amanecer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>advertencia</t>
+          <t>amor</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cae</t>
+          <t>aparecer</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>afloja</t>
+          <t>andas</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>caer</t>
+          <t>apoyas</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>agua</t>
+          <t>apagala</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cagon</t>
+          <t>areglar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ahorita</t>
+          <t>apoyo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>calavera</t>
+          <t>arreglas</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>alcalde</t>
+          <t>aqui</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>chambear</t>
+          <t>aumenta</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>alli</t>
+          <t>asesinatos</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>charlando</t>
+          <t>avisar</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>amigo</t>
+          <t>atentado</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>chibolo</t>
+          <t>burlando</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>amo</t>
+          <t>atras</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>chismear</t>
+          <t>cae</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>amor</t>
+          <t>avisado</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>colaborar</t>
+          <t>caer</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>andas</t>
+          <t>avises</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>comunicas</t>
+          <t>chambear</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>apagala</t>
+          <t>aviso</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>conocemos</t>
+          <t>charlando</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>apoyo</t>
+          <t>bala</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>conocer</t>
+          <t>chismear</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>banco</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>convertir</t>
+          <t>chistes</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>asesinatos</t>
+          <t>banda</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>conviene</t>
+          <t>colaborar</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>atentado</t>
+          <t>billete</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cuidalos</t>
+          <t>conocer</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>atras</t>
+          <t>billetera</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cumplas</t>
+          <t>consigue</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>avises</t>
+          <t>bomba</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cumples</t>
+          <t>convertir</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>aviso</t>
+          <t>brasa</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cumplir</t>
+          <t>conviene</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bala</t>
+          <t>bromas</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>corre</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>banco</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dada</t>
+          <t>cuesta</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>banda</t>
+          <t>buscarte</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>dale</t>
+          <t>cuidalos</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>billete</t>
+          <t>busques</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dar</t>
+          <t>cuidamos</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>billetera</t>
+          <t>cabeza</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>darle</t>
+          <t>cumplas</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>bomba</t>
+          <t>caera</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>cumplir</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>brasa</t>
+          <t>caeras</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>da</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bromas</t>
+          <t>cagon</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>deja</t>
+          <t>dale</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>calavera</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dejarte</t>
+          <t>dar</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>buscarte</t>
+          <t>calladito</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>demando</t>
+          <t>darle</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>busques</t>
+          <t>calma</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>denunciar</t>
+          <t>de</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cabeza</t>
+          <t>caminas</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>depende</t>
+          <t>decide</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>caera</t>
+          <t>camioneta</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dependen</t>
+          <t>decision</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>caeras</t>
+          <t>canse</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>deposita</t>
+          <t>deja</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>calladito</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>desaparezco</t>
+          <t>dejarte</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>calma</t>
+          <t>cara</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>despiden</t>
+          <t>demando</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>caminas</t>
+          <t>carro</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>denuncia</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>camioneta</t>
+          <t>carros</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>dicen</t>
+          <t>denunciar</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>canse</t>
+          <t>casa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dimos</t>
+          <t>depende</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cantidad</t>
+          <t>caso</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dinamitada</t>
+          <t>dependen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cara</t>
+          <t>chibolo</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dormira</t>
+          <t>deposita</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>carro</t>
+          <t>chibolos</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>depositame</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>carros</t>
+          <t>chofer</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>enfriamos</t>
+          <t>depositaste</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>casa</t>
+          <t>choferes</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>enfriar</t>
+          <t>despiden</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>caso</t>
+          <t>chompa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>enganarme</t>
+          <t>dia</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>chibolos</t>
+          <t>colabora</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>enojar</t>
+          <t>dicen</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>chistes</t>
+          <t>colaboras</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>enterarse</t>
+          <t>dije</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>chofer</t>
+          <t>colegio</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>entiende</t>
+          <t>dinamitada</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>choferes</t>
+          <t>companero</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>escapar</t>
+          <t>dormira</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>chompa</t>
+          <t>comunicas</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>escuchame</t>
+          <t>el</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>colabora</t>
+          <t>comuniques</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>esperando</t>
+          <t>elige</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>colaboras</t>
+          <t>concha</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>esperar</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>colegio</t>
+          <t>conchadetumadre</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>estan</t>
+          <t>enfriar</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>companero</t>
+          <t>conchetumadre</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>estara</t>
+          <t>enganarme</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>comuniques</t>
+          <t>conchetumare</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>estudian</t>
+          <t>enojar</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>concha</t>
+          <t>concierto</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>explosionar</t>
+          <t>enterarse</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>conchadetumadre</t>
+          <t>conmigo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>explotar</t>
+          <t>entiende</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>conchetumadre</t>
+          <t>conocemos</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>exponer</t>
+          <t>es</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>conchetumare</t>
+          <t>conozco</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>frente</t>
+          <t>escapar</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>concierto</t>
+          <t>consecuencias</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>funciona</t>
+          <t>escuchame</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>conmigo</t>
+          <t>contario</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>hablas</t>
+          <t>esperando</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>conozco</t>
+          <t>contestas</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>hace</t>
+          <t>esperar</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>consecuencias</t>
+          <t>contigo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>hacer</t>
+          <t>estan</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>consigue</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>haciendo</t>
+          <t>estara</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>contario</t>
+          <t>cooperas</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>haciendote</t>
+          <t>estudian</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>contestas</t>
+          <t>cortaremos</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>hagas</t>
+          <t>evita</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>contigo</t>
+          <t>cree</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>explosionar</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>crees</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>imaginas</t>
+          <t>explotar</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cooperas</t>
+          <t>cuenta</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>indicarle</t>
+          <t>exponer</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>corre</t>
+          <t>culpa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ir</t>
+          <t>frente</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cortaremos</t>
+          <t>cumple</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ire</t>
+          <t>funciona</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cree</t>
+          <t>cumples</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iremos</t>
+          <t>ha</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>crees</t>
+          <t>cuota</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jugando</t>
+          <t>hablas</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cuenta</t>
+          <t>cupo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ladron</t>
+          <t>hace</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>cuesta</t>
+          <t>dada</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>lamentar</t>
+          <t>hacer</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cuidamos</t>
+          <t>dame</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>llamar</t>
+          <t>hagas</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>culpa</t>
+          <t>dare</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>llegando</t>
+          <t>haz</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>cumple</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>llegar</t>
+          <t>he</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>cuota</t>
+          <t>decepciones</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>llorar</t>
+          <t>hermana</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>cupo</t>
+          <t>decides</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>ignores</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dame</t>
+          <t>decisiones</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>manda</t>
+          <t>importa</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dare</t>
+          <t>dedo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>mandar</t>
+          <t>indicarle</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>datos</t>
+          <t>dejame</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>matando</t>
+          <t>ir</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>decepciones</t>
+          <t>dejare</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>matar</t>
+          <t>ire</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>decides</t>
+          <t>dejo</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>matarte</t>
+          <t>iremos</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>denuncias</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>metemos</t>
+          <t>ladron</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>decisiones</t>
+          <t>depositas</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>lamentar</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dedo</t>
+          <t>deposite</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>meterte</t>
+          <t>llaman</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>dejame</t>
+          <t>deposito</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>molestar</t>
+          <t>llamar</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>dejare</t>
+          <t>desaparezco</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>morir</t>
+          <t>llega</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>dejo</t>
+          <t>despues</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>negociar</t>
+          <t>llegar</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>denuncia</t>
+          <t>detras</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ni</t>
+          <t>llorar</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>denuncias</t>
+          <t>deuda</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lo</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>depositame</t>
+          <t>devuelves</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>mandar</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>depositas</t>
+          <t>dialogo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>olvida</t>
+          <t>matar</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>depositaste</t>
+          <t>dias</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>paga</t>
+          <t>matarte</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>deposite</t>
+          <t>dimos</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>pagan</t>
+          <t>meter</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>deposito</t>
+          <t>dinamito</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>pagar</t>
+          <t>minutos</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>despues</t>
+          <t>dinero</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>pagaron</t>
+          <t>molestar</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>detras</t>
+          <t>dolor</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>pasara</t>
+          <t>morir</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>deuda</t>
+          <t>duele</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>pedi</t>
+          <t>negociar</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>devuelves</t>
+          <t>empresa</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>pedimos</t>
+          <t>ni</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>dialogo</t>
+          <t>encontrarte</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>pensar</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dias</t>
+          <t>encuentras</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>pensarlo</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>dije</t>
+          <t>enfriamos</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>perder</t>
+          <t>olvidate</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>dinamito</t>
+          <t>enterara</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>perderlo</t>
+          <t>orden</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>dinero</t>
+          <t>entrega</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>perdiendo</t>
+          <t>paga</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dolor</t>
+          <t>entregame</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>piola</t>
+          <t>pagame</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>duele</t>
+          <t>envias</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>porvenir</t>
+          <t>pagan</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>esconderte</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>postergando</t>
+          <t>pagar</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>elige</t>
+          <t>escuchas</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>preocupes</t>
+          <t>pagarme</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>empresa</t>
+          <t>escuela</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>pruebes</t>
+          <t>pagaron</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>encontrarte</t>
+          <t>esfuerzo</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>publicarse</t>
+          <t>pasa</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>encuentras</t>
+          <t>espalda</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pudran</t>
+          <t>pasara</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>enterara</t>
+          <t>esperes</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>queda</t>
+          <t>paz</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>entrega</t>
+          <t>esposa</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>quedar</t>
+          <t>pedimos</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>entregame</t>
+          <t>estudia</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>quemamos</t>
+          <t>pensar</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>envias</t>
+          <t>experiencia</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>quemar</t>
+          <t>pensarlo</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>explocion</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>recibir</t>
+          <t>perder</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>esconderte</t>
+          <t>extorsionadores</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>recoger</t>
+          <t>perderlo</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>escuchas</t>
+          <t>fallaremos</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>regala</t>
+          <t>perdiendo</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>escuela</t>
+          <t>falta</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>regresarlo</t>
+          <t>policia</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>esfuerzo</t>
+          <t>familia</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>repetirlo</t>
+          <t>ponga</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>espalda</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>respondo</t>
+          <t>porvenir</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>esperes</t>
+          <t>fiesta</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>retrasando</t>
+          <t>postergando</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>esposa</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>sabemos</t>
+          <t>pruebes</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>estudia</t>
+          <t>forma</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sabes</t>
+          <t>publicarse</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>evita</t>
+          <t>fotos</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sabras</t>
+          <t>pudran</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>experiencia</t>
+          <t>frios</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>salen</t>
+          <t>queda</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>explocion</t>
+          <t>fuego</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>salida</t>
+          <t>quedar</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>extorsionadores</t>
+          <t>fuiste</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>salir</t>
+          <t>quemamos</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>fallaremos</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>salvar</t>
+          <t>quemar</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>falta</t>
+          <t>gente</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>salvarte</t>
+          <t>queremos</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>familia</t>
+          <t>guarda</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>senor</t>
+          <t>recibir</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>hablo</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>seran</t>
+          <t>recoger</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>fiesta</t>
+          <t>habra</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>sigues</t>
+          <t>regala</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>hacerte</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>siguiendo</t>
+          <t>regresarlo</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>forma</t>
+          <t>haciendo</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>sirve</t>
+          <t>repetirlo</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>fotos</t>
+          <t>haciendote</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>soltar</t>
+          <t>respondo</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>frios</t>
+          <t>hazme</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>su</t>
+          <t>retrasando</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>fuego</t>
+          <t>hermano</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>suegra</t>
+          <t>revienta</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>fuiste</t>
+          <t>hija</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>sufrir</t>
+          <t>rompe</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>hijo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sufrira</t>
+          <t>sabemos</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>gente</t>
+          <t>hijos</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>sufriran</t>
+          <t>salen</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>guarda</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>salida</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>hora</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>tenemos</t>
+          <t>salir</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>hablo</t>
+          <t>horarios</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>tener</t>
+          <t>salvar</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>habra</t>
+          <t>horas</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>tengo</t>
+          <t>se</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>hacerte</t>
+          <t>huevadas</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>terminar</t>
+          <t>semana</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>haz</t>
+          <t>huevona</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>tiene</t>
+          <t>senor</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>hazme</t>
+          <t>idiota</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>tienen</t>
+          <t>sepas</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>hermana</t>
+          <t>imaginas</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>toco</t>
+          <t>seran</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>hermano</t>
+          <t>indicare</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>trae</t>
+          <t>seres</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>hija</t>
+          <t>intentes</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>traer</t>
+          <t>si</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>hijo</t>
+          <t>investigamos</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>tragar</t>
+          <t>sigues</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hijos</t>
+          <t>jato</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>va</t>
+          <t>siguiendo</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>jodes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>van</t>
+          <t>sirve</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>hora</t>
+          <t>juega</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>vecinos</t>
+          <t>soles</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>horarios</t>
+          <t>juegas</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>venimos</t>
+          <t>soltar</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>horas</t>
+          <t>juego</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>veran</t>
+          <t>su</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>huevadas</t>
+          <t>juegues</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>veremos</t>
+          <t>sufrir</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>huevona</t>
+          <t>jugando</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>verme</t>
+          <t>sufrira</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>idiota</t>
+          <t>juro</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>vez</t>
+          <t>sufriran</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ignores</t>
+          <t>k</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>viene</t>
+          <t>tener</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>importa</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>vigilando</t>
+          <t>terminar</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>indicare</t>
+          <t>lamentaras</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>vivir</t>
+          <t>tiene</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>intentes</t>
+          <t>le</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>volar</t>
+          <t>tienen</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>investigamos</t>
+          <t>listos</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>volvemos</t>
+          <t>toco</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jato</t>
+          <t>llame</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>volvera</t>
+          <t>trae</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>jodes</t>
+          <t>llamen</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>traer</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>juega</t>
+          <t>llamo</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ya</t>
+          <t>tragar</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>juegas</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
+          <t>llanto</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>va</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>juego</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
+          <t>llegamos</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>van</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>juegues</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
+          <t>llegando</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>vecinos</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>juro</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
+          <t>llegas</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>venimos</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
+          <t>llevo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>veran</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>la</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t>locura</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>veremos</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>lamentaras</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
+          <t>luces</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>verme</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>le</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
+          <t>luz</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>viene</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>listos</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
+          <t>malditos</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>vivir</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>llaman</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
+          <t>manda</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>volar</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>llame</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr"/>
+          <t>mande</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>llamen</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr"/>
+          <t>mando</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ya</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>llamo</t>
+          <t>mano</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -2784,7 +2832,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>llanto</t>
+          <t>manos</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -2792,7 +2840,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>llega</t>
+          <t>matamos</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -2800,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>llegamos</t>
+          <t>matando</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -2808,7 +2856,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>llegas</t>
+          <t>matare</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -2816,7 +2864,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>llevo</t>
+          <t>matarlos</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -2824,7 +2872,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>locura</t>
+          <t>mate</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -2832,7 +2880,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>luces</t>
+          <t>mato</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -2840,7 +2888,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>luz</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -2848,7 +2896,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>malditos</t>
+          <t>medianoche</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -2856,7 +2904,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>mande</t>
+          <t>mensaje</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -2864,7 +2912,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>mando</t>
+          <t>merece</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -2872,7 +2920,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>mano</t>
+          <t>meses</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -2880,7 +2928,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>manos</t>
+          <t>metemos</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -2888,7 +2936,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>matamos</t>
+          <t>meterte</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -2896,7 +2944,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>matare</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -2904,7 +2952,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>matarlos</t>
+          <t>mias</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -2912,7 +2960,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mate</t>
+          <t>miedo</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -2920,7 +2968,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>mato</t>
+          <t>millon</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2928,7 +2976,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>minuto</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -2936,7 +2984,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>medianoche</t>
+          <t>mira</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -2944,7 +2992,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>mensaje</t>
+          <t>molestaremos</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -2952,7 +3000,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>merece</t>
+          <t>monto</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -2960,7 +3008,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>meses</t>
+          <t>movimienros</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -2968,7 +3016,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>movimientos</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -2976,7 +3024,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>mias</t>
+          <t>muere</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -2984,7 +3032,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>miedo</t>
+          <t>mueres</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -2992,7 +3040,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>millon</t>
+          <t>muerte</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -3000,7 +3048,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>minuto</t>
+          <t>muertos</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -3008,7 +3056,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>minutos</t>
+          <t>necesito</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3016,7 +3064,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>mira</t>
+          <t>negocio</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -3024,7 +3072,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>molestaremos</t>
+          <t>nieta</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -3032,7 +3080,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>monto</t>
+          <t>ningun</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -3040,7 +3088,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>movimienros</t>
+          <t>noche</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -3048,7 +3096,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>movimientos</t>
+          <t>nomas</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -3056,7 +3104,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>muere</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -3064,7 +3112,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mueres</t>
+          <t>norte</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -3072,7 +3120,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>muerte</t>
+          <t>noticias</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -3080,7 +3128,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>muertos</t>
+          <t>obligues</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -3088,7 +3136,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>necesito</t>
+          <t>ocurra</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -3096,7 +3144,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>negocio</t>
+          <t>ofrece</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -3104,7 +3152,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>nieta</t>
+          <t>olvida</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -3112,7 +3160,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ningun</t>
+          <t>olvidaste</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -3120,7 +3168,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>olvides</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -3128,7 +3176,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>nomas</t>
+          <t>oportunidad</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -3136,7 +3184,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>organizacion</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -3144,7 +3192,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>norte</t>
+          <t>paciencia</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -3152,7 +3200,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>noticias</t>
+          <t>pagas</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -3160,7 +3208,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>obligues</t>
+          <t>pago</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -3168,7 +3216,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ocurra</t>
+          <t>palabras</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -3176,7 +3224,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ofrece</t>
+          <t>pasaste</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -3184,7 +3232,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>olvidaste</t>
+          <t>pase</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -3192,7 +3240,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>olvidate</t>
+          <t>paseas</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -3200,7 +3248,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>olvides</t>
+          <t>paso</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -3208,7 +3256,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>oportunidad</t>
+          <t>pedi</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -3216,7 +3264,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>orden</t>
+          <t>peligro</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -3224,7 +3272,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>organizacion</t>
+          <t>pendeja</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -3232,7 +3280,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>paciencia</t>
+          <t>perderas</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -3240,7 +3288,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>pagame</t>
+          <t>perdiste</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -3248,7 +3296,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>pagarme</t>
+          <t>perro</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -3256,7 +3304,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>pagas</t>
+          <t>perros</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -3264,7 +3312,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>pago</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -3272,7 +3320,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>palabras</t>
+          <t>pierdes</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -3280,7 +3328,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>pasa</t>
+          <t>piola</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -3288,7 +3336,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>pasaste</t>
+          <t>plata</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -3296,7 +3344,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>pase</t>
+          <t>plomazo</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -3304,7 +3352,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>paseas</t>
+          <t>podra</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -3312,7 +3360,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>paso</t>
+          <t>pollo</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -3320,7 +3368,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>paz</t>
+          <t>pones</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -3328,7 +3376,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>peligro</t>
+          <t>pongas</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -3336,7 +3384,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>pendeja</t>
+          <t>precio</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -3344,7 +3392,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>perderas</t>
+          <t>prendidas</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -3352,7 +3400,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>perdiste</t>
+          <t>preocupes</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -3360,7 +3408,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>perro</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -3368,7 +3416,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>perros</t>
+          <t>problema</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -3376,7 +3424,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>problemas</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -3384,7 +3432,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>pierdes</t>
+          <t>propiedad</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -3392,7 +3440,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>plata</t>
+          <t>provoques</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -3400,7 +3448,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>plomazo</t>
+          <t>puerta</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -3408,7 +3456,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>podra</t>
+          <t>puta</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -3416,7 +3464,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>policia</t>
+          <t>quiebro</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -3424,7 +3472,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>pollo</t>
+          <t>quieres</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -3432,7 +3480,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>pones</t>
+          <t>quiero</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -3440,7 +3488,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ponga</t>
+          <t>quitala</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -3448,7 +3496,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>pongas</t>
+          <t>rata</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -3456,7 +3504,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>precio</t>
+          <t>raya</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -3464,7 +3512,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>prendidas</t>
+          <t>realidad</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -3472,7 +3520,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>recibo</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -3480,7 +3528,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>problema</t>
+          <t>recoges</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -3488,7 +3536,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>problemas</t>
+          <t>reconchadetumare</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -3496,7 +3544,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>propiedad</t>
+          <t>reconchetumare</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -3504,7 +3552,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>provoques</t>
+          <t>recuerda</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -3512,7 +3560,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>puerta</t>
+          <t>regalo</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -3520,7 +3568,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>puta</t>
+          <t>reglaje</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -3528,7 +3576,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>queremos</t>
+          <t>regresas</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -3536,7 +3584,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>quiebro</t>
+          <t>reloj</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -3544,7 +3592,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>quieres</t>
+          <t>renta</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -3552,7 +3600,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>quiero</t>
+          <t>repitamosla</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -3560,7 +3608,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>quitala</t>
+          <t>reputacion</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -3568,7 +3616,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>rata</t>
+          <t>resistira</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -3576,7 +3624,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>raya</t>
+          <t>respuesta</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -3584,7 +3632,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>realidad</t>
+          <t>resto</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -3592,7 +3640,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>recibo</t>
+          <t>reventamos</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -3600,7 +3648,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>recoges</t>
+          <t>reviento</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -3608,7 +3656,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>reconchadetumare</t>
+          <t>riesgo</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -3616,7 +3664,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>reconchetumare</t>
+          <t>risa</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -3624,7 +3672,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>recuerda</t>
+          <t>ronda</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -3632,7 +3680,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>regalo</t>
+          <t>sabes</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -3640,7 +3688,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>reglaje</t>
+          <t>sabras</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -3648,7 +3696,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>regresas</t>
+          <t>saludo</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -3656,7 +3704,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>reloj</t>
+          <t>salvarte</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -3664,7 +3712,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>renta</t>
+          <t>sangre</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -3672,7 +3720,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>repitamosla</t>
+          <t>secuestrare</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -3680,7 +3728,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>reputacion</t>
+          <t>seguimiento</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -3688,7 +3736,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>resistira</t>
+          <t>seguridad</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -3696,7 +3744,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>respuesta</t>
+          <t>sobrino</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -3704,7 +3752,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>resto</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -3712,7 +3760,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>reventamos</t>
+          <t>suegra</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -3720,7 +3768,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>revienta</t>
+          <t>suelta</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -3728,7 +3776,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>reviento</t>
+          <t>sufra</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -3736,7 +3784,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>riesgo</t>
+          <t>tardes</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -3744,7 +3792,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>risa</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -3752,7 +3800,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>rompe</t>
+          <t>techo</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -3760,7 +3808,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ronda</t>
+          <t>tendra</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -3768,7 +3816,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>saludo</t>
+          <t>tendras</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -3776,7 +3824,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>sangre</t>
+          <t>tenemos</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -3784,7 +3832,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>tengo</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -3792,7 +3840,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>secuestrare</t>
+          <t>termina</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -3800,7 +3848,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>seguimiento</t>
+          <t>terminaremos</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -3808,7 +3856,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>seguridad</t>
+          <t>termine</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -3816,7 +3864,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>semana</t>
+          <t>termino</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -3824,7 +3872,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sepas</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -3832,7 +3880,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>seres</t>
+          <t>tiempo</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -3840,7 +3888,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>tienda</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -3848,7 +3896,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>sobrino</t>
+          <t>tienes</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -3856,7 +3904,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>soles</t>
+          <t>tios</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -3864,7 +3912,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>tombos</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -3872,7 +3920,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>suelta</t>
+          <t>toquemos</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -3880,7 +3928,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>sufra</t>
+          <t>trabajas</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -3888,7 +3936,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>tardes</t>
+          <t>tranquilidad</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -3896,7 +3944,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>techo</t>
+          <t>transferencia</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -3904,7 +3952,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>tendra</t>
+          <t>trato</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -3912,7 +3960,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tendras</t>
+          <t>tren</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -3920,7 +3968,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>termina</t>
+          <t>tu</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -3928,7 +3976,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>terminaremos</t>
+          <t>un</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -3936,7 +3984,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>termine</t>
+          <t>vale</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -3944,7 +3992,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>termino</t>
+          <t>vas</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -3952,7 +4000,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>veas</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -3960,7 +4008,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>tiempo</t>
+          <t>vencio</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -3968,7 +4016,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>tienda</t>
+          <t>vendes</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -3976,7 +4024,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>tienes</t>
+          <t>ventana</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -3984,7 +4032,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>tios</t>
+          <t>veo</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -3992,7 +4040,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>tombos</t>
+          <t>veras</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -4000,7 +4048,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>toquemos</t>
+          <t>vernos</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -4008,7 +4056,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>trabajas</t>
+          <t>vez</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -4016,7 +4064,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>tranquilidad</t>
+          <t>vida</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -4024,7 +4072,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>transferencia</t>
+          <t>vigilando</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -4032,7 +4080,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>trato</t>
+          <t>visita</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -4040,7 +4088,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>tren</t>
+          <t>vive</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -4048,7 +4096,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>tu</t>
+          <t>vives</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -4056,7 +4104,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>viviras</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -4064,7 +4112,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>vale</t>
+          <t>volamos</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -4072,7 +4120,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>vas</t>
+          <t>volara</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -4080,7 +4128,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>veas</t>
+          <t>volare</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -4088,7 +4136,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>vencio</t>
+          <t>volvemos</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -4096,7 +4144,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>vendes</t>
+          <t>volvera</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -4104,7 +4152,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ventana</t>
+          <t>vuelta</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -4112,7 +4160,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>veo</t>
+          <t>vuelva</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -4120,7 +4168,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>veras</t>
+          <t>vuelvo</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -4128,7 +4176,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>vernos</t>
+          <t>yo</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -4136,106 +4184,10 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>vida</t>
+          <t>zapatos</t>
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>visita</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>vive</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>vives</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>viviras</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>volamos</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>volara</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>volare</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>vuelta</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>vuelva</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>vuelvo</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>yo</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>zapatos</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/classified_dictionary.xlsx
+++ b/classified_dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B370"/>
+  <dimension ref="A1:B391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>a</t>
         </is>
       </c>
     </row>
@@ -465,2366 +465,2282 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>acaba</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>acabando</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>actuo</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>advertencia</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>advirtiendo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>abrigues</t>
+          <t>20000</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>al</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>actuo</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>amanecer</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ademas</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>aparecer</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>adjudicamos</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>apoyas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>afloja</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>abrira</t>
+          <t>aqui</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>agua</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>acaba</t>
+          <t>areglar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ahorita</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>acabando</t>
+          <t>atentado</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>alcalde</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>advertencia</t>
+          <t>avisado</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>alli</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>advirtiendo</t>
+          <t>avisar</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>amigo</t>
+          <t>abrigues</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>al</t>
+          <t>burlando</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>amo</t>
+          <t>abrira</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>amanecer</t>
+          <t>cae</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>amor</t>
+          <t>ademas</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>aparecer</t>
+          <t>caer</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>andas</t>
+          <t>adjudicamos</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>apoyas</t>
+          <t>calavera</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>apagala</t>
+          <t>afloja</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>areglar</t>
+          <t>chambear</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>apoyo</t>
+          <t>agua</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arreglas</t>
+          <t>charlando</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>aqui</t>
+          <t>ahorita</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>aumenta</t>
+          <t>chibolo</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>asesinatos</t>
+          <t>alcalde</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>avisar</t>
+          <t>chismear</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>atentado</t>
+          <t>alli</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>burlando</t>
+          <t>colaborar</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>atras</t>
+          <t>amigo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cae</t>
+          <t>companero</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>avisado</t>
+          <t>amo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>caer</t>
+          <t>conocer</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>avises</t>
+          <t>amor</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>chambear</t>
+          <t>consigue</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aviso</t>
+          <t>andas</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>charlando</t>
+          <t>contario</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bala</t>
+          <t>apagala</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>chismear</t>
+          <t>convertir</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>banco</t>
+          <t>apoyo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>chistes</t>
+          <t>conviene</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>banda</t>
+          <t>arreglas</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>colaborar</t>
+          <t>crees</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>billete</t>
+          <t>asesinatos</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>conocer</t>
+          <t>cuesta</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>billetera</t>
+          <t>atras</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>consigue</t>
+          <t>cuidalos</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>bomba</t>
+          <t>aumenta</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>convertir</t>
+          <t>cumplas</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>brasa</t>
+          <t>avises</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>conviene</t>
+          <t>cumples</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bromas</t>
+          <t>aviso</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>corre</t>
+          <t>cumplir</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>bala</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cuesta</t>
+          <t>dada</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>buscarte</t>
+          <t>banco</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cuidalos</t>
+          <t>dale</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>busques</t>
+          <t>banda</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cuidamos</t>
+          <t>dar</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cabeza</t>
+          <t>billete</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cumplas</t>
+          <t>darle</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>caera</t>
+          <t>billetera</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cumplir</t>
+          <t>de</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>caeras</t>
+          <t>bomba</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>deja</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cagon</t>
+          <t>brasa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dale</t>
+          <t>dejarte</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>calavera</t>
+          <t>bromas</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>dar</t>
+          <t>dejo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>calladito</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>darle</t>
+          <t>demando</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>calma</t>
+          <t>buscarte</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>denunciar</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>caminas</t>
+          <t>busques</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>decide</t>
+          <t>depende</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>camioneta</t>
+          <t>cabeza</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t>dependen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>canse</t>
+          <t>caera</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>deja</t>
+          <t>deposita</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>cantidad</t>
+          <t>caeras</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>dejarte</t>
+          <t>depositaste</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cara</t>
+          <t>cagon</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>demando</t>
+          <t>desaparezco</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>carro</t>
+          <t>calladito</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>denuncia</t>
+          <t>despiden</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>carros</t>
+          <t>calma</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>denunciar</t>
+          <t>deuda</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>casa</t>
+          <t>caminas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>depende</t>
+          <t>dia</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>caso</t>
+          <t>camioneta</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dependen</t>
+          <t>dicen</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>chibolo</t>
+          <t>canse</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>deposita</t>
+          <t>dinamitada</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>chibolos</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>depositame</t>
+          <t>dinamito</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>chofer</t>
+          <t>cara</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depositaste</t>
+          <t>dormira</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>choferes</t>
+          <t>carro</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>despiden</t>
+          <t>el</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>chompa</t>
+          <t>carros</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dia</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>colabora</t>
+          <t>casa</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dicen</t>
+          <t>enfriamos</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>colaboras</t>
+          <t>caso</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dije</t>
+          <t>enfriar</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>colegio</t>
+          <t>chibolos</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dinamitada</t>
+          <t>enganarme</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>companero</t>
+          <t>chistes</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>dormira</t>
+          <t>enojar</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>comunicas</t>
+          <t>chofer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>enterara</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>comuniques</t>
+          <t>choferes</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>elige</t>
+          <t>enterarse</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>concha</t>
+          <t>chompa</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>entregame</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>conchadetumadre</t>
+          <t>colabora</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>enfriar</t>
+          <t>es</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>conchetumadre</t>
+          <t>colaboras</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>enganarme</t>
+          <t>escapar</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>conchetumare</t>
+          <t>colegio</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>enojar</t>
+          <t>escuchame</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>concierto</t>
+          <t>comunicas</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>enterarse</t>
+          <t>esperando</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>conmigo</t>
+          <t>comuniques</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>entiende</t>
+          <t>esperar</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>conocemos</t>
+          <t>concha</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>es</t>
+          <t>estan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>conozco</t>
+          <t>conchadetumadre</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>escapar</t>
+          <t>estara</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>consecuencias</t>
+          <t>conchetumadre</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>escuchame</t>
+          <t>evita</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>contario</t>
+          <t>conchetumare</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>esperando</t>
+          <t>explosionar</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>contestas</t>
+          <t>concierto</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>esperar</t>
+          <t>explotar</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>contigo</t>
+          <t>conmigo</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>estan</t>
+          <t>exponer</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>conocemos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>estara</t>
+          <t>frente</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>cooperas</t>
+          <t>conozco</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>estudian</t>
+          <t>hablas</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cortaremos</t>
+          <t>consecuencias</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>evita</t>
+          <t>hace</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cree</t>
+          <t>contestas</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>explosionar</t>
+          <t>hacer</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>crees</t>
+          <t>contigo</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>explotar</t>
+          <t>haciendo</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cuenta</t>
+          <t>control</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>exponer</t>
+          <t>he</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>culpa</t>
+          <t>cooperas</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>frente</t>
+          <t>indicarle</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cumple</t>
+          <t>corre</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>funciona</t>
+          <t>ir</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cumples</t>
+          <t>cortaremos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ha</t>
+          <t>ire</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>cuota</t>
+          <t>cree</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>hablas</t>
+          <t>jugando</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>cupo</t>
+          <t>cuenta</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>hace</t>
+          <t>ladron</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dada</t>
+          <t>cuidamos</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>hacer</t>
+          <t>lamentar</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dame</t>
+          <t>culpa</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>hagas</t>
+          <t>llamar</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>dare</t>
+          <t>cumple</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>haz</t>
+          <t>llegando</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>datos</t>
+          <t>cuota</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>he</t>
+          <t>llegar</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>decepciones</t>
+          <t>cupo</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>hermana</t>
+          <t>llorar</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>decides</t>
+          <t>da</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ignores</t>
+          <t>lo</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>decisiones</t>
+          <t>dame</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>importa</t>
+          <t>manda</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dedo</t>
+          <t>dare</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>indicarle</t>
+          <t>mandar</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dejame</t>
+          <t>datos</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ir</t>
+          <t>matando</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dejare</t>
+          <t>decepciones</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ire</t>
+          <t>matar</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dejo</t>
+          <t>decide</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>iremos</t>
+          <t>matarte</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>denuncias</t>
+          <t>decides</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ladron</t>
+          <t>meter</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>depositas</t>
+          <t>decision</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lamentar</t>
+          <t>meterte</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>deposite</t>
+          <t>decisiones</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>llaman</t>
+          <t>molestar</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>deposito</t>
+          <t>dedo</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>llamar</t>
+          <t>morir</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>desaparezco</t>
+          <t>dejame</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>llega</t>
+          <t>necesito</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>despues</t>
+          <t>dejare</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>llegar</t>
+          <t>negociar</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>detras</t>
+          <t>denuncia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>llorar</t>
+          <t>ni</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>deuda</t>
+          <t>denuncias</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>devuelves</t>
+          <t>depositame</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>mandar</t>
+          <t>o</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>dialogo</t>
+          <t>depositas</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>matar</t>
+          <t>olvida</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>dias</t>
+          <t>deposite</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>matarte</t>
+          <t>olvidate</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>dimos</t>
+          <t>deposito</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>orden</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>dinamito</t>
+          <t>despues</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>minutos</t>
+          <t>pagame</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>dinero</t>
+          <t>detras</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>molestar</t>
+          <t>pagar</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>dolor</t>
+          <t>devuelves</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>morir</t>
+          <t>pagarme</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>duele</t>
+          <t>dialogo</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>negociar</t>
+          <t>pasara</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>empresa</t>
+          <t>dias</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ni</t>
+          <t>pedi</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>encontrarte</t>
+          <t>dije</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>pensar</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>encuentras</t>
+          <t>dimos</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>pensarlo</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>enfriamos</t>
+          <t>dinero</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>olvidate</t>
+          <t>perder</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>enterara</t>
+          <t>dolor</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>orden</t>
+          <t>perderlo</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>entrega</t>
+          <t>duele</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>paga</t>
+          <t>perdiendo</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>entregame</t>
+          <t>elige</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>pagame</t>
+          <t>piola</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>envias</t>
+          <t>empresa</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>pagan</t>
+          <t>ponga</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>esconderte</t>
+          <t>encontrarte</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pagar</t>
+          <t>porvenir</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>escuchas</t>
+          <t>encuentras</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>pagarme</t>
+          <t>postergando</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>escuela</t>
+          <t>entiende</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>pagaron</t>
+          <t>prendidas</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>esfuerzo</t>
+          <t>entrega</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>pasa</t>
+          <t>pruebes</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>espalda</t>
+          <t>envias</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>pasara</t>
+          <t>publicarse</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>esperes</t>
+          <t>esconderte</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>paz</t>
+          <t>quedar</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>esposa</t>
+          <t>escuchas</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>pedimos</t>
+          <t>quemamos</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>estudia</t>
+          <t>escuela</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>pensar</t>
+          <t>quemar</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>experiencia</t>
+          <t>esfuerzo</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>pensarlo</t>
+          <t>quiebro</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>explocion</t>
+          <t>espalda</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>perder</t>
+          <t>realidad</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>extorsionadores</t>
+          <t>esperes</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>perderlo</t>
+          <t>recibir</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>fallaremos</t>
+          <t>esposa</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>perdiendo</t>
+          <t>recibo</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>falta</t>
+          <t>estudia</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>policia</t>
+          <t>recoger</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>familia</t>
+          <t>estudian</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ponga</t>
+          <t>regala</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>favor</t>
+          <t>experiencia</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>porvenir</t>
+          <t>regresarlo</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>fiesta</t>
+          <t>explocion</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>postergando</t>
+          <t>repetirlo</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>fin</t>
+          <t>extorsionadores</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>pruebes</t>
+          <t>respondo</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>forma</t>
+          <t>fallaremos</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>publicarse</t>
+          <t>resto</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>fotos</t>
+          <t>falta</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>pudran</t>
+          <t>retrasando</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>frios</t>
+          <t>familia</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>queda</t>
+          <t>sabes</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>fuego</t>
+          <t>favor</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>quedar</t>
+          <t>sabras</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>fuiste</t>
+          <t>fiesta</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>quemamos</t>
+          <t>salida</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>fin</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>quemar</t>
+          <t>salir</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>gente</t>
+          <t>forma</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>queremos</t>
+          <t>salvar</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>guarda</t>
+          <t>fotos</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>recibir</t>
+          <t>seguimiento</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>hablo</t>
+          <t>frios</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>recoger</t>
+          <t>senor</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>habra</t>
+          <t>fuego</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>regala</t>
+          <t>sepas</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>hacerte</t>
+          <t>fuiste</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>regresarlo</t>
+          <t>siguiendo</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>haciendo</t>
+          <t>full</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>repetirlo</t>
+          <t>soles</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>haciendote</t>
+          <t>funciona</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>respondo</t>
+          <t>soltar</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>hazme</t>
+          <t>gente</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>retrasando</t>
+          <t>suegra</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>hermano</t>
+          <t>guarda</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>revienta</t>
+          <t>sufrir</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>hija</t>
+          <t>ha</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>rompe</t>
+          <t>sufrira</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>hijo</t>
+          <t>hablo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>sabemos</t>
+          <t>tener</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>hijos</t>
+          <t>habra</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>salen</t>
+          <t>tengo</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>historia</t>
+          <t>hacerte</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>salida</t>
+          <t>terminar</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>hora</t>
+          <t>haciendote</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>salir</t>
+          <t>tiene</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>horarios</t>
+          <t>hagas</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>salvar</t>
+          <t>toco</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>horas</t>
+          <t>haz</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>se</t>
+          <t>traer</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>huevadas</t>
+          <t>hazme</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>semana</t>
+          <t>tragar</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>huevona</t>
+          <t>hermana</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>senor</t>
+          <t>veas</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>idiota</t>
+          <t>hermano</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sepas</t>
+          <t>vecinos</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>imaginas</t>
+          <t>hija</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>seran</t>
+          <t>veremos</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>indicare</t>
+          <t>hijo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>seres</t>
+          <t>verme</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>intentes</t>
+          <t>hijos</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>si</t>
+          <t>vez</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>investigamos</t>
+          <t>historia</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>sigues</t>
+          <t>viene</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>jato</t>
+          <t>hora</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>siguiendo</t>
+          <t>vigilando</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jodes</t>
+          <t>horarios</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>sirve</t>
+          <t>vivir</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>juega</t>
+          <t>horas</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>soles</t>
+          <t>volar</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>juegas</t>
+          <t>huevadas</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>soltar</t>
+          <t>volvera</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>juego</t>
+          <t>huevona</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>su</t>
+          <t>vuelvo</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>juegues</t>
+          <t>idiota</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>sufrir</t>
+          <t>y</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>jugando</t>
+          <t>ignores</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>sufrira</t>
+          <t>ya</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>juro</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>sufriran</t>
-        </is>
-      </c>
+          <t>imaginas</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>k</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>tener</t>
-        </is>
-      </c>
+          <t>importa</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>la</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>terminar</t>
-        </is>
-      </c>
+          <t>indicare</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>lamentaras</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>tiene</t>
-        </is>
-      </c>
+          <t>intentes</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>le</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>tienen</t>
-        </is>
-      </c>
+          <t>investigamos</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>listos</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>toco</t>
-        </is>
-      </c>
+          <t>iremos</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>llame</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>trae</t>
-        </is>
-      </c>
+          <t>jato</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>llamen</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>traer</t>
-        </is>
-      </c>
+          <t>jodes</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>llamo</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>tragar</t>
-        </is>
-      </c>
+          <t>juega</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>llanto</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>va</t>
-        </is>
-      </c>
+          <t>juegas</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>llegamos</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>van</t>
-        </is>
-      </c>
+          <t>juego</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>llegando</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>vecinos</t>
-        </is>
-      </c>
+          <t>juegues</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>llegas</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>venimos</t>
-        </is>
-      </c>
+          <t>juro</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>llevo</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>veran</t>
-        </is>
-      </c>
+          <t>k</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>locura</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>veremos</t>
-        </is>
-      </c>
+          <t>la</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>luces</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>verme</t>
-        </is>
-      </c>
+          <t>lamentaras</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>luz</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>viene</t>
-        </is>
-      </c>
+          <t>le</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>malditos</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>vivir</t>
-        </is>
-      </c>
+          <t>listos</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>manda</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>volar</t>
-        </is>
-      </c>
+          <t>llaman</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>mande</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
+          <t>llame</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>mando</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>ya</t>
-        </is>
-      </c>
+          <t>llamen</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>mano</t>
+          <t>llamo</t>
         </is>
       </c>
       <c r="B200" t="inlineStr"/>
@@ -2832,7 +2748,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>manos</t>
+          <t>llanto</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
@@ -2840,7 +2756,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>matamos</t>
+          <t>llega</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -2848,7 +2764,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>matando</t>
+          <t>llegamos</t>
         </is>
       </c>
       <c r="B203" t="inlineStr"/>
@@ -2856,7 +2772,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>matare</t>
+          <t>llegas</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -2864,7 +2780,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>matarlos</t>
+          <t>llevo</t>
         </is>
       </c>
       <c r="B205" t="inlineStr"/>
@@ -2872,7 +2788,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>mate</t>
+          <t>locura</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -2880,7 +2796,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>mato</t>
+          <t>luces</t>
         </is>
       </c>
       <c r="B207" t="inlineStr"/>
@@ -2888,7 +2804,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>luz</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -2896,7 +2812,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>medianoche</t>
+          <t>malditos</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -2904,7 +2820,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>mensaje</t>
+          <t>mande</t>
         </is>
       </c>
       <c r="B210" t="inlineStr"/>
@@ -2912,7 +2828,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>merece</t>
+          <t>mando</t>
         </is>
       </c>
       <c r="B211" t="inlineStr"/>
@@ -2920,7 +2836,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>meses</t>
+          <t>mano</t>
         </is>
       </c>
       <c r="B212" t="inlineStr"/>
@@ -2928,7 +2844,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>metemos</t>
+          <t>manos</t>
         </is>
       </c>
       <c r="B213" t="inlineStr"/>
@@ -2936,7 +2852,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>meterte</t>
+          <t>matamos</t>
         </is>
       </c>
       <c r="B214" t="inlineStr"/>
@@ -2944,7 +2860,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>matare</t>
         </is>
       </c>
       <c r="B215" t="inlineStr"/>
@@ -2952,7 +2868,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>mias</t>
+          <t>matarlos</t>
         </is>
       </c>
       <c r="B216" t="inlineStr"/>
@@ -2960,7 +2876,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>miedo</t>
+          <t>mate</t>
         </is>
       </c>
       <c r="B217" t="inlineStr"/>
@@ -2968,7 +2884,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>millon</t>
+          <t>mato</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -2976,7 +2892,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>minuto</t>
+          <t>me</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -2984,7 +2900,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>mira</t>
+          <t>medianoche</t>
         </is>
       </c>
       <c r="B220" t="inlineStr"/>
@@ -2992,7 +2908,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>molestaremos</t>
+          <t>mensaje</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -3000,7 +2916,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>monto</t>
+          <t>merece</t>
         </is>
       </c>
       <c r="B222" t="inlineStr"/>
@@ -3008,7 +2924,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>movimienros</t>
+          <t>meses</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -3016,7 +2932,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>movimientos</t>
+          <t>metemos</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -3024,7 +2940,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>muere</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B225" t="inlineStr"/>
@@ -3032,7 +2948,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>mueres</t>
+          <t>mias</t>
         </is>
       </c>
       <c r="B226" t="inlineStr"/>
@@ -3040,7 +2956,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>muerte</t>
+          <t>miedo</t>
         </is>
       </c>
       <c r="B227" t="inlineStr"/>
@@ -3048,7 +2964,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>muertos</t>
+          <t>millon</t>
         </is>
       </c>
       <c r="B228" t="inlineStr"/>
@@ -3056,7 +2972,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>necesito</t>
+          <t>minuto</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3064,7 +2980,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>negocio</t>
+          <t>minutos</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -3072,7 +2988,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>nieta</t>
+          <t>mira</t>
         </is>
       </c>
       <c r="B231" t="inlineStr"/>
@@ -3080,7 +2996,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ningun</t>
+          <t>molestaremos</t>
         </is>
       </c>
       <c r="B232" t="inlineStr"/>
@@ -3088,7 +3004,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>monto</t>
         </is>
       </c>
       <c r="B233" t="inlineStr"/>
@@ -3096,7 +3012,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>nomas</t>
+          <t>movimienros</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -3104,7 +3020,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>movimientos</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -3112,7 +3028,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>norte</t>
+          <t>muere</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -3120,7 +3036,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>noticias</t>
+          <t>mueres</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
@@ -3128,7 +3044,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>obligues</t>
+          <t>muerte</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -3136,7 +3052,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ocurra</t>
+          <t>muertos</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -3144,7 +3060,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ofrece</t>
+          <t>negocio</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -3152,7 +3068,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>olvida</t>
+          <t>nieta</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -3160,7 +3076,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>olvidaste</t>
+          <t>ningun</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -3168,7 +3084,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>olvides</t>
+          <t>noche</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -3176,7 +3092,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>oportunidad</t>
+          <t>nomas</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -3184,7 +3100,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>organizacion</t>
+          <t>nombre</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -3192,7 +3108,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>paciencia</t>
+          <t>norte</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -3200,7 +3116,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>pagas</t>
+          <t>noticias</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -3208,7 +3124,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>pago</t>
+          <t>obligues</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -3216,7 +3132,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>palabras</t>
+          <t>ocurra</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -3224,7 +3140,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>pasaste</t>
+          <t>ofrece</t>
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
@@ -3232,7 +3148,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>pase</t>
+          <t>olvidaste</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -3240,7 +3156,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>paseas</t>
+          <t>olvides</t>
         </is>
       </c>
       <c r="B252" t="inlineStr"/>
@@ -3248,7 +3164,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>paso</t>
+          <t>oportunidad</t>
         </is>
       </c>
       <c r="B253" t="inlineStr"/>
@@ -3256,7 +3172,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>pedi</t>
+          <t>organizacion</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -3264,7 +3180,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>peligro</t>
+          <t>paciencia</t>
         </is>
       </c>
       <c r="B255" t="inlineStr"/>
@@ -3272,7 +3188,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>pendeja</t>
+          <t>paga</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -3280,7 +3196,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>perderas</t>
+          <t>pagan</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -3288,7 +3204,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>perdiste</t>
+          <t>pagaron</t>
         </is>
       </c>
       <c r="B258" t="inlineStr"/>
@@ -3296,7 +3212,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>perro</t>
+          <t>pagas</t>
         </is>
       </c>
       <c r="B259" t="inlineStr"/>
@@ -3304,7 +3220,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>perros</t>
+          <t>pago</t>
         </is>
       </c>
       <c r="B260" t="inlineStr"/>
@@ -3312,7 +3228,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>persona</t>
+          <t>palabras</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -3320,7 +3236,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>pierdes</t>
+          <t>pasa</t>
         </is>
       </c>
       <c r="B262" t="inlineStr"/>
@@ -3328,7 +3244,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>piola</t>
+          <t>pasaste</t>
         </is>
       </c>
       <c r="B263" t="inlineStr"/>
@@ -3336,7 +3252,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>plata</t>
+          <t>pase</t>
         </is>
       </c>
       <c r="B264" t="inlineStr"/>
@@ -3344,7 +3260,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>plomazo</t>
+          <t>paseas</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -3352,7 +3268,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>podra</t>
+          <t>paso</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -3360,7 +3276,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>pollo</t>
+          <t>paz</t>
         </is>
       </c>
       <c r="B267" t="inlineStr"/>
@@ -3368,7 +3284,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>pones</t>
+          <t>pedimos</t>
         </is>
       </c>
       <c r="B268" t="inlineStr"/>
@@ -3376,7 +3292,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>pongas</t>
+          <t>peligro</t>
         </is>
       </c>
       <c r="B269" t="inlineStr"/>
@@ -3384,7 +3300,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>precio</t>
+          <t>pendeja</t>
         </is>
       </c>
       <c r="B270" t="inlineStr"/>
@@ -3392,7 +3308,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>prendidas</t>
+          <t>perderas</t>
         </is>
       </c>
       <c r="B271" t="inlineStr"/>
@@ -3400,7 +3316,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>preocupes</t>
+          <t>perdiste</t>
         </is>
       </c>
       <c r="B272" t="inlineStr"/>
@@ -3408,7 +3324,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>primo</t>
+          <t>perro</t>
         </is>
       </c>
       <c r="B273" t="inlineStr"/>
@@ -3416,7 +3332,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>problema</t>
+          <t>perros</t>
         </is>
       </c>
       <c r="B274" t="inlineStr"/>
@@ -3424,7 +3340,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>problemas</t>
+          <t>persona</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -3432,7 +3348,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>propiedad</t>
+          <t>pierdes</t>
         </is>
       </c>
       <c r="B276" t="inlineStr"/>
@@ -3440,7 +3356,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>provoques</t>
+          <t>plata</t>
         </is>
       </c>
       <c r="B277" t="inlineStr"/>
@@ -3448,7 +3364,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>puerta</t>
+          <t>plomazo</t>
         </is>
       </c>
       <c r="B278" t="inlineStr"/>
@@ -3456,7 +3372,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>puta</t>
+          <t>podra</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -3464,7 +3380,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>quiebro</t>
+          <t>policia</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -3472,7 +3388,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>quieres</t>
+          <t>pollo</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -3480,7 +3396,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>quiero</t>
+          <t>pones</t>
         </is>
       </c>
       <c r="B282" t="inlineStr"/>
@@ -3488,7 +3404,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>quitala</t>
+          <t>pongas</t>
         </is>
       </c>
       <c r="B283" t="inlineStr"/>
@@ -3496,7 +3412,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>rata</t>
+          <t>precio</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -3504,7 +3420,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>raya</t>
+          <t>preocupes</t>
         </is>
       </c>
       <c r="B285" t="inlineStr"/>
@@ -3512,7 +3428,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>realidad</t>
+          <t>primo</t>
         </is>
       </c>
       <c r="B286" t="inlineStr"/>
@@ -3520,7 +3436,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>recibo</t>
+          <t>problema</t>
         </is>
       </c>
       <c r="B287" t="inlineStr"/>
@@ -3528,7 +3444,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>recoges</t>
+          <t>problemas</t>
         </is>
       </c>
       <c r="B288" t="inlineStr"/>
@@ -3536,7 +3452,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>reconchadetumare</t>
+          <t>propiedad</t>
         </is>
       </c>
       <c r="B289" t="inlineStr"/>
@@ -3544,7 +3460,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>reconchetumare</t>
+          <t>provoques</t>
         </is>
       </c>
       <c r="B290" t="inlineStr"/>
@@ -3552,7 +3468,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>recuerda</t>
+          <t>pudran</t>
         </is>
       </c>
       <c r="B291" t="inlineStr"/>
@@ -3560,7 +3476,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>regalo</t>
+          <t>puerta</t>
         </is>
       </c>
       <c r="B292" t="inlineStr"/>
@@ -3568,7 +3484,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>reglaje</t>
+          <t>puta</t>
         </is>
       </c>
       <c r="B293" t="inlineStr"/>
@@ -3576,7 +3492,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>regresas</t>
+          <t>queda</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -3584,7 +3500,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>reloj</t>
+          <t>queremos</t>
         </is>
       </c>
       <c r="B295" t="inlineStr"/>
@@ -3592,7 +3508,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>renta</t>
+          <t>quieres</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -3600,7 +3516,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>repitamosla</t>
+          <t>quiero</t>
         </is>
       </c>
       <c r="B297" t="inlineStr"/>
@@ -3608,7 +3524,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>reputacion</t>
+          <t>quitala</t>
         </is>
       </c>
       <c r="B298" t="inlineStr"/>
@@ -3616,7 +3532,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>resistira</t>
+          <t>rata</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -3624,7 +3540,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>respuesta</t>
+          <t>raya</t>
         </is>
       </c>
       <c r="B300" t="inlineStr"/>
@@ -3632,7 +3548,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>resto</t>
+          <t>recoges</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -3640,7 +3556,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>reventamos</t>
+          <t>reconchadetumare</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -3648,7 +3564,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>reviento</t>
+          <t>reconchetumare</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -3656,7 +3572,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>riesgo</t>
+          <t>recuerda</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -3664,7 +3580,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>risa</t>
+          <t>regalo</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -3672,7 +3588,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ronda</t>
+          <t>reglaje</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -3680,7 +3596,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>sabes</t>
+          <t>regresas</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -3688,7 +3604,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>sabras</t>
+          <t>reloj</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -3696,7 +3612,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>saludo</t>
+          <t>renta</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -3704,7 +3620,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>salvarte</t>
+          <t>repitamosla</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
@@ -3712,7 +3628,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>sangre</t>
+          <t>reputacion</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -3720,7 +3636,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>secuestrare</t>
+          <t>resistira</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -3728,7 +3644,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>seguimiento</t>
+          <t>respuesta</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
@@ -3736,7 +3652,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>seguridad</t>
+          <t>reventamos</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -3744,7 +3660,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>sobrino</t>
+          <t>revienta</t>
         </is>
       </c>
       <c r="B315" t="inlineStr"/>
@@ -3752,7 +3668,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>sorpresa</t>
+          <t>reviento</t>
         </is>
       </c>
       <c r="B316" t="inlineStr"/>
@@ -3760,7 +3676,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>suegra</t>
+          <t>riesgo</t>
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
@@ -3768,7 +3684,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>suelta</t>
+          <t>risa</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
@@ -3776,7 +3692,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sufra</t>
+          <t>rompe</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -3784,7 +3700,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>tardes</t>
+          <t>ronda</t>
         </is>
       </c>
       <c r="B320" t="inlineStr"/>
@@ -3792,7 +3708,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>te</t>
+          <t>sabemos</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -3800,7 +3716,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>techo</t>
+          <t>salen</t>
         </is>
       </c>
       <c r="B322" t="inlineStr"/>
@@ -3808,7 +3724,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>tendra</t>
+          <t>saludo</t>
         </is>
       </c>
       <c r="B323" t="inlineStr"/>
@@ -3816,7 +3732,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>tendras</t>
+          <t>salvarte</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -3824,7 +3740,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>tenemos</t>
+          <t>sangre</t>
         </is>
       </c>
       <c r="B325" t="inlineStr"/>
@@ -3832,7 +3748,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>tengo</t>
+          <t>se</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -3840,7 +3756,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>termina</t>
+          <t>secuestrare</t>
         </is>
       </c>
       <c r="B327" t="inlineStr"/>
@@ -3848,7 +3764,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>terminaremos</t>
+          <t>seguridad</t>
         </is>
       </c>
       <c r="B328" t="inlineStr"/>
@@ -3856,7 +3772,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>termine</t>
+          <t>semana</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -3864,7 +3780,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>termino</t>
+          <t>seran</t>
         </is>
       </c>
       <c r="B330" t="inlineStr"/>
@@ -3872,7 +3788,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>seres</t>
         </is>
       </c>
       <c r="B331" t="inlineStr"/>
@@ -3880,7 +3796,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>tiempo</t>
+          <t>si</t>
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
@@ -3888,7 +3804,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>tienda</t>
+          <t>sigues</t>
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
@@ -3896,7 +3812,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>tienes</t>
+          <t>sirve</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -3904,7 +3820,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>tios</t>
+          <t>sobrino</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -3912,7 +3828,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>tombos</t>
+          <t>sorpresa</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -3920,7 +3836,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>toquemos</t>
+          <t>su</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
@@ -3928,7 +3844,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>trabajas</t>
+          <t>suelta</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
@@ -3936,7 +3852,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>tranquilidad</t>
+          <t>sufra</t>
         </is>
       </c>
       <c r="B339" t="inlineStr"/>
@@ -3944,7 +3860,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>transferencia</t>
+          <t>sufriran</t>
         </is>
       </c>
       <c r="B340" t="inlineStr"/>
@@ -3952,7 +3868,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>trato</t>
+          <t>tardes</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -3960,7 +3876,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>tren</t>
+          <t>te</t>
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
@@ -3968,7 +3884,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>tu</t>
+          <t>techo</t>
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
@@ -3976,7 +3892,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>un</t>
+          <t>tendra</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -3984,7 +3900,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>vale</t>
+          <t>tendras</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
@@ -3992,7 +3908,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>vas</t>
+          <t>tenemos</t>
         </is>
       </c>
       <c r="B346" t="inlineStr"/>
@@ -4000,7 +3916,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>veas</t>
+          <t>termina</t>
         </is>
       </c>
       <c r="B347" t="inlineStr"/>
@@ -4008,7 +3924,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>vencio</t>
+          <t>terminaremos</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -4016,7 +3932,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>vendes</t>
+          <t>termine</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
@@ -4024,7 +3940,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ventana</t>
+          <t>termino</t>
         </is>
       </c>
       <c r="B350" t="inlineStr"/>
@@ -4032,7 +3948,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>veo</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -4040,7 +3956,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>veras</t>
+          <t>tiempo</t>
         </is>
       </c>
       <c r="B352" t="inlineStr"/>
@@ -4048,7 +3964,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>vernos</t>
+          <t>tienda</t>
         </is>
       </c>
       <c r="B353" t="inlineStr"/>
@@ -4056,7 +3972,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>vez</t>
+          <t>tienen</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -4064,7 +3980,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>vida</t>
+          <t>tienes</t>
         </is>
       </c>
       <c r="B355" t="inlineStr"/>
@@ -4072,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>vigilando</t>
+          <t>tios</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -4080,7 +3996,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>visita</t>
+          <t>tombos</t>
         </is>
       </c>
       <c r="B357" t="inlineStr"/>
@@ -4088,7 +4004,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>vive</t>
+          <t>toquemos</t>
         </is>
       </c>
       <c r="B358" t="inlineStr"/>
@@ -4096,7 +4012,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>vives</t>
+          <t>trabajas</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -4104,7 +4020,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>viviras</t>
+          <t>trae</t>
         </is>
       </c>
       <c r="B360" t="inlineStr"/>
@@ -4112,7 +4028,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>volamos</t>
+          <t>tranquilidad</t>
         </is>
       </c>
       <c r="B361" t="inlineStr"/>
@@ -4120,7 +4036,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>volara</t>
+          <t>transferencia</t>
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
@@ -4128,7 +4044,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>volare</t>
+          <t>trato</t>
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
@@ -4136,7 +4052,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>volvemos</t>
+          <t>tren</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -4144,7 +4060,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>volvera</t>
+          <t>tu</t>
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
@@ -4152,7 +4068,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>vuelta</t>
+          <t>un</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -4160,7 +4076,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>vuelva</t>
+          <t>va</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
@@ -4168,7 +4084,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vuelvo</t>
+          <t>vale</t>
         </is>
       </c>
       <c r="B368" t="inlineStr"/>
@@ -4176,7 +4092,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>yo</t>
+          <t>van</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
@@ -4184,10 +4100,178 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
+          <t>vas</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>vencio</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>vendes</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>venimos</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ventana</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>veo</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>veran</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>veras</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>vernos</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>vida</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>visita</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>vive</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>vives</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>viviras</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>volamos</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>volara</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>volare</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>volvemos</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>vuelta</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>vuelva</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
           <t>zapatos</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr"/>
+      <c r="B391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
